--- a/RaccoltaDati.xlsx
+++ b/RaccoltaDati.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Desktop\uni 2020\TIROCINIO\Lunedi7_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64926701-0AC3-4261-9700-96DB3196CE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF3B92-5D7B-49F2-9200-3C7394C6344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>BRACCIO</t>
   </si>
@@ -59,9 +58,6 @@
     <t>Lunedi7_3</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>non funzionante, sensori a scatti</t>
   </si>
   <si>
@@ -164,88 +160,28 @@
     <t xml:space="preserve"> camminata circolare + giro epr la stanza (probabilmente sensori non riconosciuti a tratti)</t>
   </si>
   <si>
-    <t>BC0</t>
-  </si>
-  <si>
-    <t>BC2</t>
-  </si>
-  <si>
-    <t>BC3</t>
-  </si>
-  <si>
-    <t>BC4</t>
-  </si>
-  <si>
-    <t>BC5</t>
-  </si>
-  <si>
-    <t>BLV0</t>
-  </si>
-  <si>
-    <t>BLV1</t>
-  </si>
-  <si>
-    <t>BLV2</t>
-  </si>
-  <si>
-    <t>BLV3</t>
-  </si>
-  <si>
-    <t>BLV4</t>
-  </si>
-  <si>
-    <t>BLV5</t>
-  </si>
-  <si>
-    <t>BLV6</t>
-  </si>
-  <si>
-    <t>BLV7</t>
-  </si>
-  <si>
-    <t>BLV8</t>
-  </si>
-  <si>
-    <t>MG0</t>
-  </si>
-  <si>
-    <t>MG1</t>
-  </si>
-  <si>
-    <t>MG2</t>
-  </si>
-  <si>
-    <t>MG3</t>
-  </si>
-  <si>
-    <t>MG4</t>
-  </si>
-  <si>
-    <t>MG5</t>
-  </si>
-  <si>
-    <t>E0</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>grafici</t>
-  </si>
-  <si>
-    <t>unity</t>
-  </si>
-  <si>
-    <t>Registrazione</t>
-  </si>
-  <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>REGISTRAZIONE</t>
+  </si>
+  <si>
+    <t>DESCRIZIONE</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BLV</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>ERRORE</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -267,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +212,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -373,7 +315,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -386,7 +328,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -397,7 +339,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -407,15 +349,103 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -425,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -435,14 +465,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -723,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,12 +792,12 @@
     <col min="6" max="6" width="73.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -754,26 +807,20 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1902</v>
       </c>
@@ -783,22 +830,20 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="18">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1874</v>
       </c>
@@ -809,459 +854,377 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="E4" s="19">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
+        <v>12</v>
+      </c>
+      <c r="E5" s="19">
         <v>3</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20">
         <v>5</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1902</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="19">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="19">
         <v>2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="19">
         <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="19">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="19">
         <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="19">
         <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19">
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="20">
         <v>8</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1902</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1874</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
+      <c r="E19" s="19">
+        <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="19">
+        <v>3</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3</v>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19">
+        <v>4</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="20">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1874</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="20">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="6">
-        <v>3</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G23:G26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
